--- a/biology/Botanique/Osyris_alba/Osyris_alba.xlsx
+++ b/biology/Botanique/Osyris_alba/Osyris_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Osyris alba, le Rouvet blanc ou Osyris blanc, est une espèce de plante à fleurs méditerranéenne de la famille des Santalaceae.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Osyris alba est un sous-arbrisseau, vivace, très rameux, de 40 cm à 1,5 m de haut[3].
-Les feuilles sont alternes, coriaces, linéaires-lancéolées, aiguës, entières, uninervées. Elles sont portées par des tiges vertes, à rameaux dressés et anguleux[4].
-La floraison a lieu de mai à juillet[5]. Les fleurs jaunes, parfumées, sont en trois parties, le périanthe à trois lobes triangulaires, trois étamines, un style. C'est une plante dioïque avec des fleurs mâles en petits bouquets, nombreuses et des fleurs femelles solitaires, portées par des pieds différents.
-Le fruit est une drupe peu charnue, grosse et globuleuse comme un pois, à la fin rouge[4]. La fructification se fait en août-septembre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osyris alba est un sous-arbrisseau, vivace, très rameux, de 40 cm à 1,5 m de haut.
+Les feuilles sont alternes, coriaces, linéaires-lancéolées, aiguës, entières, uninervées. Elles sont portées par des tiges vertes, à rameaux dressés et anguleux.
+La floraison a lieu de mai à juillet. Les fleurs jaunes, parfumées, sont en trois parties, le périanthe à trois lobes triangulaires, trois étamines, un style. C'est une plante dioïque avec des fleurs mâles en petits bouquets, nombreuses et des fleurs femelles solitaires, portées par des pieds différents.
+Le fruit est une drupe peu charnue, grosse et globuleuse comme un pois, à la fin rouge. La fructification se fait en août-septembre.
 			Feuilles.
 			Rameaux de bouquets de fleurs mâles.
 			Fruit.
@@ -548,10 +562,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Osyris alba croit dans les terrains broussailleux secs, les lieux arides.
-Osyris alba est présent dans tout le bassin méditerranéen[6]. On l'observe[7] dans le Midi, le Sud-Ouest, l'Ain, l'Aveyron, sur les côtes de la Charente-Maritime et en Corse.
+Osyris alba est présent dans tout le bassin méditerranéen. On l'observe dans le Midi, le Sud-Ouest, l'Ain, l'Aveyron, sur les côtes de la Charente-Maritime et en Corse.
 </t>
         </is>
       </c>
